--- a/all_extracted_texts_2.xlsx
+++ b/all_extracted_texts_2.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1747,7 +1747,6 @@
           <t>2015 Q1</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1811,7 +1810,6 @@
           <t>2015 Q1</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1946,6 +1944,154 @@
       <c r="C88" t="inlineStr">
         <is>
           <t>403 Client Error: 403 for url: https://sgx.i3investor.com/web/stock/overview/C6L</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.sla.gov.sg/</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2015 Q1</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Singapore Land AuthorityA Singapore Government Agency Website How to identify Official website links end with .gov.sgGovernment agencies communicate via .gov.sg websites (e.g. go.gov.sg/open).Trusted websiteSecure websites use HTTPSLook for a lock () or https:// as an added precaution. Share sensitiveinformation only on official, secure websites. menuE-ServicesRent State Land &amp; PropertyPurchase State LandFind Property or Land InfoSubscribe to GNSS Reference NetworkLodge your Property TitleFind Map Data through OneMapView my Property InformationApply for Temporary Occupation LicenceSubmit Cadastral SurveySubmit LDAU Application (RPA)About SLAOVERVIEWAWARDS &amp; ACCOLADESBOARD MEMBERSCORPORATE SOCIAL RESPONSIBILITYETHICAL GOVERNANCEORGANISATION CHARTSERVICE STANDARDSVISION, MISSION, VALUESJoin UsInternshipOur Work @ SLAScholarshipContact UsXHomeE-ServicesRent State Land &amp; PropertyPurchase State LandFind Property or Land InfoGet Positioning Data from SLALodge Your Property TitleFind Map Data through OneMapView My Property InformationSubmit Cadastral SurveySUBMIT LDAU APPLICATION (RPA)Apply for Temporary LicenceAbout SLAOverviewAwards &amp; AccoladesBoard MembersCorporate Social Responsibility Ethical GovernanceOrganisation ChartService StandardsVision, Mission, ValuesContact UsPropertiesAcquisition of LandManagement of State Land and PropertyLand Sales and Lease ManagementRental of State Land &amp; PropertyPurchase of Remnant LandManagement of State LandLand for Community UseGEOSPATIALOverviewOneMapDigitised Land InformationPositioning DataProperty Ownership, Survey Plans and Road Lines InformationLicensing of Digital Land InfoMap our WorldREGULATORYForeign Ownership of PropertyProperty BoundariesProperty OwnershipLodge Your Property TitleVisit SLA PropertiesFormsNewsroomAnnual ReportsCircularsHighlightsLegislationNewsletterPress ReleaseStatisticsInitiativesNews &amp; EventsPublicationsJoin UsOUR WORK @ SLAINTERNSHIPSCHOLARSHIPFREQUENTLY ASKED QUESTIONS (FAQs)Properties VIVISTOP at Former Kampong Eunos CC  A community makerspace dedicated to children and youth Geospatial Identification of flood prone areas  National 3D Map Properties Vidacity at Former Loyang Primary School  A Sustainability innovation hub E-SERVICESFind Property Or Land InfoCaption text        Find Property Or Land Info      Rent State Land Or PropertyCaption text        Rent State Land Or Property      Apply for Temporary Occupation LicenceCaption text        Apply for Temporary Occupation Licence      Lodge Your Property TitleCaption text        Lodge Your Property Title      Find Map Data Through OneMapCaption text        Find Map Data Through OneMap      View My Property InformationCaption text        View My Property Information      View MoreWHAT WE DOPropertiesWe manage State land and properties, which are used for residential, social and community purposes in innovative ways to support our nation's economic and social needs.        Properties      GeospatialSLA drives adoption of geospatial technology by fostering a collaborative environment that encourages innovation, knowledge sharing and value creation among public agencies, private enterprises and the community.        Geospatial Development &amp; Services      RegulatoryAs the national land registration and land survey authority, SLA maintains accurate and reliable land ownership and land boundary information.        Regulatory      NEWS &amp; EVENTSLaunch of Geospatial Masterplan 2024-2033This second iteration of the masterplan integrates land and marine spatial data development and charts the trajectory of national geospatial development for the next decade.        https://www.sla.gov.sg/articles/press-releases/2024/10-year-singapore-geospatial-master-plan-outlines-key-land-and-maritime-initiatives-for-geospatial-enabled-outcomes-to-improve-lives-and-enable-solutions-to-complex-urban-challenges      Geospatial Power! Weston RobotIn the first of our #GeospatialPower series, we speak to Dr Zhang Yanliang, Chief Scientist at Weston Robot on how his robots are utilising SLA’s #geospatial data and infrastructure to solve daily challenges, increase productivity, reduce labour-intensive work and better the lives of Singaporeans.        /newsroom/news-n-events/geospatial-power-weston-robot      Adaptive Reuse of 30 Cosford Road The State property has been transformed into Singapore's largest outdoor F&amp;B Container Park, featuring 13 diverse food and beverage concepts, along with a variety of entertainment options.        https://www.sla.gov.sg/articles/press-releases/2023/sla-announces-onemap-gpt-challenge-and-new-education-collaborations-at-5th-singapore-geospatial-festival-to-deepen-geospatial-capabilities-in-singapore      View More Contact UsFeedbackReach.Gov.SgContact UsFeedbackReach.Gov.SgReport Vulnerability | Privacy Policy  | Terms of Use  | SitemapCopyright © 2024 Singapore Land AuthorityLast updated on 24 Jul 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.european-coatings.com/news/raw-materials/new-report-profiles-asia_pacific-paints-market-2013-and-forecasts-for-2018/</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2015 Q1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New report profiles Asia-Pacific paints market 2013 and forecasts for 2018 - News and insights for the European coatings industry                             E-Learning                                                    Knowledge database                                                    Price Ticker                                                    Directory                        Login / Register                                        News                                                                                                        All                                    Application Areas                                    Coatings Technologies                                    Legislation                                    Markets &amp; Companies                                    People &amp; Careers                                    Production &amp; Lab                                    Raw materials                                    Sponsored Content                                                        Events                                                                                                                    Dossiers                                                                                                                    Whitepaper                                                                                                                    Shop                                                                                                                    E-Learning                                                                            Knowledge database                                                                            Price Ticker                                                                            Directory                                     New report profiles Asia-Pacific paints market 2013 and forecasts for 2018NewsRaw materialsMarket research firm IRL has launched a new edition of its regional title “A Profile of the Asia- Pacific Paint Industry”.            This fully updated report provides market data for 2013            and forecasts for 2018, and gives an overview of the            paint industry trends across 13 countries in the            region.                     Smallest markets are those of New Zealand and Singapore                     The Asia-Pacific economies are growing fast, boosting            growth in the demand for many building and industrial            materials, including coatings. The total market for            coatings was 21.4 million metric tons in 2013, and is            forecast  to increase to 29.2 million metric tons            by 2018; this is equivalent to an average annual growth            rate of 6.4% in the medium term. China is by far the            largest national market for coatings in the            Asia-Pacific region, followed at some considerable            distance by India and Japan. The smallest markets are            those of New Zealand and Singapore. While medium-term            growth is forecast to be low in the more developed and            mature markets such as Australia, New Zealand and            Japan, the developing market of India is predicted to            demonstrate growth of over 10% per annum over the next            five years. India still offers significant potential            for coatings market growth as per capita consumption            remains very low.                     Chinese market is driven by growth in downstream            industries                     The Chinese market is still offering good medium-term            growth of around 6.5% per annum for paints and coatings            suppliers, driven by growth in downstream industries            such as automotive, construction, shipbuilding,            petrochemicals and civil engineering. However, this            forecast growth is lower than in previous years as the            country is experiencing slower economic growth, caused            by rising costs of labor, land and raw materials, and            increasing taxes. The third tier of growth markets            comprises the Southeast Asian economies of Thailand,            Vietnam, Indonesia, the Philippines and Malaysia. These            countries are experiencing rising incomes, improving            standards of living and increasing domestic demand,            while labor and production costs remain relatively low.                     Architectural coatings account for just less than 50%                     Overall in Asia-Pacific, architectural coatings account            for just less than 50% of the total paints and coatings            market, although the figure varies considerably from            country to country. India’s high share of the            architectural segment, at over 80%, reflects the very            underdeveloped nature of much of the country’s            industrial infrastructure. Protective coatings and            general industrial coatings (including can and coil            coatings) are the second- and third-largest end-use            segments, respectively. New Zealand and Singapore are            the only two countries with no consumption of            automotive OEM coatings, since they do not possess any            automotive production facilities. Australia’s            consumption of automotive OEM coatings is expected to            fall to zero by 2018 as the country loses its vehicle            manufacturing capabilities.                     Industrial wood coatings are dominant in Vietnam                     The relative importance of the protective coatings            segment is underpinned by the considerable activities            in terms of oil and gas production, energy generation,            and mining that take place in many of the Asia-Pacific            countries. Protective coatings have a particularly            large share of the market in China due to the fast            growth of sectors such as civil engineering, marine            engineering and container manufacturing. Marine            coatings have a very high share of the national paints            and coatings market in Singapore, reflecting that            country’s importance as a regional hub for maritime            transportation, and also in South Korea, which remains            a key shipbuilding nation despite losing some business            in recent years to China and other low-cost countries            such as Indonesia Industrial wood coatings are an            especially dominant end-use segment in Vietnam, thanks            to the importance of the wood-processing industry and            the strong demand for Vietnamese-made furniture from            export markets around the world. Although the market            for plastic coatings is relatively small in all            countries covered in this report, it is of greater            relative importance in Japan and Taiwan, since those            countries are key manufacturers of electrical and            electronic goods.                     Providing 2013 data on nine mainstream segments                     “A Profile of the Asia-Pacific Paint Industry” gives an            insight into the market changes in the past few years,            as well as outlining the key trends affecting the            decorative and industrial coatings segments for each            individual country covered. The scope of the study            covers Australia, China, India, Indonesia, Japan,            Malaysia, New Zealand, Philippines, Singapore, South            Korea, Taiwan, Thailand and Vietnam. It provides 2013            market data on nine mainstream paints and coatings            segments: architectural/decorative, industrial wood            coatings, protective coatings, marine coatings,            automotive OEM coatings, automotive refinishes, powder            coatings, general industrial coatings and plastic            coatings. Forecasts on these are also presented for the            year 2018.        Hersteller zu diesem ThemaPublication date    17.03.2015Architectural coatingsAutomotive coatingsIndustrial coatingsMarine coatingsPlastic coatingsProtective coatingsWood coatingsNewsletterShare articleshare share email share This could also be interesting for you!                                    Conductive polymers: A multipurpose material for protecting ...                                                news            A paper delves into advanced fabrication methods like coating, printing, and lithography of conductive polymers, show...                                    Conference on PFAS: Call for papers open until May 15                                                news            PFAS has been a hot topic for the coatings industry recently since a ban is on the horizon. At the EC Conference Unde...                                    Titanium dioxide: “Optimisation has long been a salient conv...                                                news            Tony Margani of Nobilis describes a new technology in advanced light scattering and Tio2 optimisation and gives his o...Vincentz Network GmbH &amp; Co. KGPlathnerstr. 4c30175 Hannover, GermanyServices360° Knowledge databasePrice TickerSuppliers HubDirectoryPodcastNewsletterAdvertising &amp; editorialMedia InformationEditorial GuidelinesLegal &amp; FAQImprintDeclaration of consentPrivacy PolicyTerms and ConditionsFAQCancellation of subscriptionContactContactformSubscriptions &amp; Orders+49-6123-9238-253service@vincentz.netMonday – Friday, 8.00 a.m. – 5.00 p.m. CET Find the answers to the most frequently asked questions in our FAQ collection.                    ©  Vincentz Network, Hannover                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://sg.linkedin.com/company/cyberquotesingapore</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2015 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.slideshare.net/slideshow/singapore-malaysia-economic-analysis/45567957</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2015 Q1</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Singapore &amp; malaysia economic analysis | PPTSubmit SearchUploadSingapore &amp; malaysia economic analysis•Download as PPTX, PDF•3 likes•2,496 viewsAI-enhanced descriptionkrunal solankiFollowThe document compares the economies of Singapore and Malaysia and analyzes their strategies and challenges over time. It discusses:1. Singapore achieved rapid economic growth through strategic government policies that attracted foreign investment, developed infrastructure, and mobilized human capital. 2. Malaysia transitioned from an export-based economy focused on raw materials like tin and rubber to industrialization in the late 20th century. It aimed to diversify its economy and reduce dependence on commodity exports.3. Both countries face ongoing challenges in maintaining competitiveness against rising economies like China and India, and in addressing issues like aging populations and low birth rates. They continue investing in high-tech industries and developing skilled workforces.Read lessRead moreReportShareRelated slideshowsPENGAJIAN KENEGARAAN kerajaan melayu melakaPENGAJIAN KENEGARAAN kerajaan melayu melaka Contoh resumeContoh resume SURAT PERMOHONAN JAWATAN PEKERJA SAMBILAN HARIANSURAT PERMOHONAN JAWATAN PEKERJA SAMBILAN HARIAN ReportShare1 of 19Download nowMore Related ContentWhat's hotPENGAJIAN KENEGARAAN kerajaan melayu melakaPENGAJIAN KENEGARAAN kerajaan melayu melakaAmin Upsi Kerajaan Melaka berkembang menjadi pusat perdagangan dunia pada abad ke-15 sebelum jatuh ke tangan Portugis pada 1511. Kerajaan ini menjadi pusat penyebaran agama Islam dan kebudayaan Melayu tradisional.Contoh resumeContoh resumemalkhah Nahar Zikri bin Yusop is a 24-year-old Malaysian citizen seeking a new career opportunity. He holds a Diploma in Marine Engineering from Malaysia Maritime Academy with a CGPA of 3.30/4.00. Nahar has over 4 years of experience in engineering roles, including as an Engine Cadet and Admin &amp; System Development Manager. He is proficient in Microsoft Office applications and has intermediate skills in maintenance and servicing of machinery and process and control machinery. Nahar is willing to travel and work independently with less supervision.SURAT PERMOHONAN JAWATAN PEKERJA SAMBILAN HARIANSURAT PERMOHONAN JAWATAN PEKERJA SAMBILAN HARIANNur Suhadah Contoh surat permohonan jawatan pekerja sambilan harian. surat rasmi ini adalah untuk permohonan kekosongan jawatan. sesuai untuk permohonan jawatan pekerja sambilan harian (PSH)perniagaan antarabangsa AirAsia Berhadperniagaan antarabangsa AirAsia BerhadTieyra Atie for sharing..Peraturan dan skema peperiksaan STPM 2016Peraturan dan skema peperiksaan STPM 2016RAMLAH BINTI A. RANI Esei penggal 3 (2) (1)Esei penggal 3 (2) (1)AnnaPurni Velmurugayah sem 3 PAMakroekonomi Topik 10Makroekonomi Topik 10WanBK Leo Folio perdanamenteri malaysiaFolio perdanamenteri malaysianorhizal perdana menteri malaysiaPerjanjian inggeris belanda 1824Perjanjian inggeris belanda 1824Mie Pa pembentangan sejarahKomanwelKomanwelHong Inn Looi Komponen penyata kewanganKomponen penyata kewanganhawa senju Dasar bioteknologi negaraDasar bioteknologi negaraJANGAN TINGGAL DAKU SEBAGAI RUJUKAN PELAJAR TINGKATAN 6Melaka Sebagai Asas Pembentukan NegaraMelaka Sebagai Asas Pembentukan NegaraSKSP Nota Pembentangan Tutorial Sejarah : Melaka Sebagai Asas Pembentukan Negara oleh guru pelatih dari PISMP Kajian Sosial Sem 2/2011 di IPG KaDRIRantai siratan-makananRantai siratan-makananDayang  timbang Sejarah BAB 2 TINGKATAN 2Sejarah BAB 2 TINGKATAN 2Thanussha Ragu GOOD LUCKSELAMAT BERCUBAPengajian perniagaan Bab 2 PengeluaranPengajian perniagaan Bab 2 PengeluaranSMK Kuala Penyu Bab 2 membahasikan tiga topik utama tentang perancangan pengeluaran: (1) reka bentuk pengeluaran meliputi simplification, standardization, dan modular; (2) jenis-jenis pengeluaran seperti mengikut tempahan, secara massa, dan secara berkelompok; (3) penjelasan mendalam tentang konsep-konsep tersebut.Sistem pembesar di negeri- negeri melayuSistem pembesar di negeri- negeri melayucik wanie Peraturan dan skema peperiksaan stpm 2015 (terkini)Peraturan dan skema peperiksaan stpm 2015 (terkini)RAMLAH BINTI A. RANI Dasar perindustrian berat malaysiaDasar perindustrian berat malaysiaNur  Shazlina Yusoff Dokumen ini membahas dasar perindustrian berat Malaysia. Ia menjelaskan bahawa sektor perindustrian memberi sumbangan besar kepada ekonomi negara dengan meningkatkan KDNK. Dasar ini bertujuan untuk mengurangkan pergantungan negara kepada import, meluaskan industri sokongan, dan menguatkan ekonomi jangka panjang. Strategi pelaksanaannya termasuklah penubuhan HICOM untuk mengurus projek perindustrian berat, memberiNota Nota Ringkas Tentang Mitosis and MeiosisNota Nota Ringkas Tentang Mitosis and MeiosisThatsRiann MitosisWhat's hot (20)PENGAJIAN KENEGARAAN kerajaan melayu melakaPENGAJIAN KENEGARAAN kerajaan melayu melaka Contoh resumeContoh resume SURAT PERMOHONAN JAWATAN PEKERJA SAMBILAN HARIANSURAT PERMOHONAN JAWATAN PEKERJA SAMBILAN HARIAN perniagaan antarabangsa AirAsia Berhadperniagaan antarabangsa AirAsia Berhad Peraturan dan skema peperiksaan STPM 2016Peraturan dan skema peperiksaan STPM 2016 Esei penggal 3 (2) (1)Esei penggal 3 (2) (1) Makroekonomi Topik 10Makroekonomi Topik 10 Folio perdanamenteri malaysiaFolio perdanamenteri malaysia Perjanjian inggeris belanda 1824Perjanjian inggeris belanda 1824 KomanwelKomanwel Komponen penyata kewanganKomponen penyata kewangan Dasar bioteknologi negaraDasar bioteknologi negara Melaka Sebagai Asas Pembentukan NegaraMelaka Sebagai Asas Pembentukan Negara Rantai siratan-makananRantai siratan-makanan Sejarah BAB 2 TINGKATAN 2Sejarah BAB 2 TINGKATAN 2 Pengajian perniagaan Bab 2 PengeluaranPengajian perniagaan Bab 2 Pengeluaran Sistem pembesar di negeri- negeri melayuSistem pembesar di negeri- negeri melayu Peraturan dan skema peperiksaan stpm 2015 (terkini)Peraturan dan skema peperiksaan stpm 2015 (terkini) Dasar perindustrian berat malaysiaDasar perindustrian berat malaysia Nota Nota Ringkas Tentang Mitosis and MeiosisNota Nota Ringkas Tentang Mitosis and Meiosis Viewers also likedChapter 9 - 1965  Singapore's  Separation from MalaysiaChapter 9 - 1965  Singapore's  Separation from MalaysiaIrving Quah Separation between Singapore and Malaysia was inevitable due to both economic and political reasons. Economically, delays in establishing a common market and imposition of new taxes on Singapore hindered its development. Politically, the PAP and Alliance parties in Malaysia had growing rivalries. Racial tensions were also exacerbated by the Malaysian Malaysia campaign and racial riots in 1964. In 1965, the PAP joined other opposition parties in Malaysia, further angering UMNO leaders. Finally, on 9 August 1965, Lee Kuan Yew announced Singapore's independence after Tunku Abdul Rahman decided to expel it from Malaysia.Malaysia-Singapore Relations : Water Crisis Issue (Proposal Research)Malaysia-Singapore Relations : Water Crisis Issue (Proposal Research)Muhammad Syukhri Shafee This slide will tell you about how to make or present research proposal. The example were used is Malaysia and Singapore relations regarding water crisis issue.Capitalism, socialism &amp; mixed economyCapitalism, socialism &amp; mixed economyamitkishoresinha An economic system is the mechanism by which a society produces, distributes, and consumes goods and services. The main types of economic systems are capitalism, socialism, and mixed economies. Capitalism is based on private ownership and market forces, while socialism involves public or collective ownership and economic planning. Most modern economies are mixed, combining elements of both capitalism and socialism.comparative studycomparative studyAmani Mubarak This document compares the primary science teacher preparation programs in Malaysia and Singapore. It finds that while both countries' programs require a bachelor's degree, the Malaysian program (IPG) focuses more on educational practices and character building while the Singaporean program (NIE) emphasizes academic content knowledge and research. Both include teaching practicums, but NIE's is longer at 22 weeks compared to IPG's 32 weeks. Overall the programs show similarities in their goals to improve teacher quality but differences in their curricular approaches.OIM consultation advice  boutique case study. OIM consultation advice  boutique case study. krunal solanki           Understanding the issues and Logic in e-business and develop strategic operational report on sally 's boutique for designing B2C web model.Global trader programme - Singapore Global trader programme - Singapore Marilyn Hawken The Global Trader Programme (GTP) in Singapore provides tax incentives for companies engaged in international trading. To qualify, companies must have a minimum annual turnover of $100 million and spend $3 million locally. The programme is invitation-only and supervised by IE Singapore. It offers a concessionary tax rate of 10-15% for the first 3 years to establish a regional trading base. Companies must employ at least 3 professionals locally and be tax residents of Singapore. Trade must be between GTP companies in Singapore or involve buying/selling offshore to qualify for incentives.Singapore as partner to Asia 17 May 2016Singapore as partner to Asia 17 May 2016Gwyneth Tan Гвинет Тан 陈玟霏 Singapore is well positioned to partner with companies looking to tap into Asian growth. It has a strategic location in Southeast Asia and trade agreements that provide access to many Asian markets. Over half of Singapore's overseas investments are in Asia, making it a top investor in countries like China and India. Singapore companies use business parks and industrial zones in Asia as platforms to expand regionally. Partnering with Singapore allows firms to leverage its expertise and networks to succeed in Asian markets.Restaurent managementRestaurent managementkrunal solanki The document discusses plans to open a fine dining restaurant called "LE FANCY SCHMANCY" in Geneva, Switzerland. It will target elite customers, businessmen, students, and tourists. A PESTEL analysis found the restaurant industry is affected by economic factors like inflation and interest rates. Porter's Five Forces showed rivalry among firms and buyer power will be high threats while supplier power is medium. The SWOT analysis identified well-trained staff and location as strengths, and newness and supply chain as weaknesses. The restaurant will use local newspaper ads, airport screens, promotional items, rewards cards, and surveys to attract customers.Uncertainty in Tin &amp; Tantalum Mining - Sykes &amp; Kettle - Sep 2014 - China Meta...Uncertainty in Tin &amp; Tantalum Mining - Sykes &amp; Kettle - Sep 2014 - China Meta...John Sykes The document discusses the implications of uncertainty in tin and tantalum mining supply for the electronics industry. It summarizes that both tin and tantalum mining industries face significant supply uncertainties due to depleting resources and a lack of new discoveries. For tantalum, future supply is uncertain as many resources are uneconomic or inaccessible, and demand destruction could occur without new conflict-free sources. For tin, artisanal mining is declining while few large discoveries have been made, leaving future supply uncertain. The electronics industry should be aware of these supply risks for both critical minerals.From both sides of the line: A case study of Singaporean and Malaysian print ...From both sides of the line: A case study of Singaporean and Malaysian print ...JY Queek Honours thesis; presented at the Journalism Education Association of Australia (JEAA) 2013 conference in Sunshine Coast, Queensland.Separation of singapore and malaysiaSeparation of singapore and malaysiakrishnanunni menon Racial tensions between the Malays and Chinese in Singapore led to its separation from Malaysia. The PAP did not support policies that gave special privileges to Malays, causing disagreements. Riots in 1964 left many dead and injured. Political differences grew between the Alliance party and PAP, and the Tunku realized the disagreements could not be resolved, so he decided it was best for Singapore to leave Malaysia.Bilateral relations of singaporeBilateral relations of singaporekaiwen The document discusses Singapore's bilateral relations with Germany, India, and Vietnam. It provides examples of high-level diplomatic visits and agreements to strengthen economic and political cooperation between Singapore and these countries. Key benefits of bilateral relations highlighted include expanded trade and investment opportunities, sharing of technology and knowledge, and mutual assistance during times of need. Maintaining strong bilateral ties allows countries to work more efficiently and access timely support from neighboring partners.Singapore Vs Sri LankaSingapore Vs Sri LankaShanika Dilrukshi (Dilru) This document compares economic indicators of Singapore and Sri Lanka from 1970 to 2013. It shows that while Sri Lanka's GDP and exports were higher than Singapore's in 1970, Singapore experienced much stronger growth and its GDP and exports increased many times more than Sri Lanka's over this period. Key factors in Singapore's development included infrastructure investment, economic sector shifts away from agriculture, and becoming a major trade and transportation hub. The conclusion is that Singapore transformed from an undeveloped to developed country while Sri Lanka remains developing. Recommendations for Sri Lanka include increasing exports, trade, and pursuing rapid economic growth.ALL ABOUT WA STATE TIN MINE IN MYANMAR DATA COLLECTION BY MYO AUNG-EX-EXPLORA...ALL ABOUT WA STATE TIN MINE IN MYANMAR DATA COLLECTION BY MYO AUNG-EX-EXPLORA...MYO AUNG Myanmar 1. Mysterious tin mines in Myanmar's Wa State near the Chinese border have emerged as a major global supplier of tin, satisfying about a third of China's demand. 2. The mines are controlled by the United Wa State Army, an armed ethnic group that has close ties to China. Production from the mines has increased over 10-fold in the past four years.3. The sudden rise of Myanmar as a major tin producer has depressed tin prices but prices are now rising as production may be peaking. The future of Myanmar's natural resources will be important for peace negotiations aiming to end decades of conflict in the country.Fast food layoutFast food layoutHospitality Management Consultants &amp; Interior, Kitchen Designer  Agile Development for Startup โดย ผศ.ดร.รัฐกร  พูลทรัพย์Agile Development for Startup โดย ผศ.ดร.รัฐกร  พูลทรัพย์BAINIDA Agile Development for Startup โดย ผศ.ดร.รัฐกร  พูลทรัพย์คณะสถิติประยุกต์ สถาบันบัณฑิตพัฒนบริหารศาสตร์ ร่วมกับ Data Science Thailand ร่วมกันจัดงาน The First NIDA Business Analytics and Data Sciences Contest/ConferenceBilateral Relations 1Bilateral Relations 1lim The document discusses examples of Singapore's bilateral relations with India, Israel, and Indonesia. It provides details of agreements signed between Singapore and India on military cooperation, joint naval exercises between their navies, and cooperation in fighting terrorism. Regarding Israel, it notes cooperation in areas like healthcare, investments, and technological research. For Indonesia, it describes Singapore providing humanitarian aid after the 2004 earthquake and tsunami. The document also lists benefits of bilateral relations, such as acquiring skills from developed countries, promoting ties with neighbors, and gaining international recognition through assistance.An analysis of the impact of total quality management on employee performance...An analysis of the impact of total quality management on employee performance...nihad341 This document provides an overview of a research study analyzing the impact of total quality management (TQM) on employee performance at McDonald's in the UK. The study aims to assess TQM dimensions and their role in improving employee performance. It will use interviews, surveys, and financial data from McDonald's to analyze the relationship between TQM practices like management commitment, training, and employee focus, and indicators of employee performance. The research design is exploratory in nature, using random sampling of 150 employees and customers each from 10 McDonald's locations. Limitations include potential bias in qualitative data and not assessing all McDonald's stores.แผนธุรกิจ ของทีมที่ได้รางวัลชนะเลิศ The First NIDA Business Analytics and Dat...แผนธุรกิจ ของทีมที่ได้รางวัลชนะเลิศ The First NIDA Business Analytics and Dat...BAINIDA แผนธุรกิจ ของทีมที่ได้รางวัลชนะเลิศ The First NIDA Business Analytics and Data Sciences Contestผู้ที่ได้รางวัลชนะเลิศนายเธียรศักดิ์ พลาดิศัยเลิศ นักศึกษาคณะไอทีลาดกระบังนายก่อกฤษฎิ์ เอกพาณิชย์ถาวร จากคณะเศรษฐศาสตร์และวิทยาศาสตร์ข้อมูล Wesleyan Universityนายณัฐพล รักษ์รัชตกุล จากคณะวิศวกรรมศาสตร์ จุฬาลงกรณ์มหาวิทยาลัยSeparationSeparationdonaldleo - Singapore merged with Malaysia in 1963 in order to gain independence from Britain and solve economic problems, while Malaysia wanted to prevent Singapore from becoming a communist state.- However, the merger was troubled from the start due to different views between Singapore and Malaysia on issues like revenue sharing, representation in government, and citizenship. - Tensions increased after elections in 1963-1964, and Singapore ultimately separated from Malaysia in 1965 to pursue its own policies of meritocracy and racial harmony.Viewers also liked (20)Chapter 9 - 1965  Singapore's  Separation from MalaysiaChapter 9 - 1965  Singapore's  Separation from Malaysia Malaysia-Singapore Relations : Water Crisis Issue (Proposal Research)Malaysia-Singapore Relations : Water Crisis Issue (Proposal Research) Capitalism, socialism &amp; mixed economyCapitalism, socialism &amp; mixed economy comparative studycomparative study OIM consultation advice  boutique case study. OIM consultation advice  boutique case study.  Global trader programme - Singapore Global trader programme - Singapore  Singapore as partner to Asia 17 May 2016Singapore as partner to Asia 17 May 2016 Restaurent managementRestaurent management Uncertainty in Tin &amp; Tantalum Mining - Sykes &amp; Kettle - Sep 2014 - China Meta...Uncertainty in Tin &amp; Tantalum Mining - Sykes &amp; Kettle - Sep 2014 - China Meta... From both sides of the line: A case study of Singaporean and Malaysian print ...From both sides of the line: A case study of Singaporean and Malaysian print ... Separation of singapore and malaysiaSeparation of singapore and malaysia Bilateral relations of singaporeBilateral relations of singapore Singapore Vs Sri LankaSingapore Vs Sri Lanka ALL ABOUT WA STATE TIN MINE IN MYANMAR DATA COLLECTION BY MYO AUNG-EX-EXPLORA...ALL ABOUT WA STATE TIN MINE IN MYANMAR DATA COLLECTION BY MYO AUNG-EX-EXPLORA... Fast food layoutFast food layout Agile Development for Startup โดย ผศ.ดร.รัฐกร  พูลทรัพย์Agile Development for Startup โดย ผศ.ดร.รัฐกร  พูลทรัพย์ Bilateral Relations 1Bilateral Relations 1 An analysis of the impact of total quality management on employee performance...An analysis of the impact of total quality management on employee performance... แผนธุรกิจ ของทีมที่ได้รางวัลชนะเลิศ The First NIDA Business Analytics and Dat...แผนธุรกิจ ของทีมที่ได้รางวัลชนะเลิศ The First NIDA Business Analytics and Dat... SeparationSeparation Similar to Singapore &amp; malaysia economic analysisRemaking singaporeRemaking singaporeMahammad Khadafi Singapore has a long history as an important trading center dating back to the 7th century. It gained independence in 1965 and underwent rapid economic growth under the leadership of Lee Kuan Yew. The government pursued policies like creating statutory boards to develop infrastructure, implementing the Central Provident Fund, and attracting foreign investment to transition to an export-oriented economy. Singapore developed clusters in industries like petrochemicals, finance, logistics, IT, biopharma, tourism and education to become an Asian economic tiger with one of the highest GDP growth rates in the world by the 1970s and a highly developed economy by 2008.Development of sri lanka in South Asian contextDevelopment of sri lanka in South Asian contextJ Wanniarachchi Sri Lanka is still a developing country. We have to learn lot from other Asian Countries who are already in great development. so through this presentation it compared the economic situation of Sri Lanka with Malaysia. And imply what are the lessons that we can gain from Malaysian economy.Global macro economics project reportGlobal macro economics project reportLufthansa This document provides information about Singapore's economy and business environment. It discusses Singapore's history and development into a global economic hub. Key points include:- Singapore transformed from a British trading post to a highly developed economy focused on trade, finance, and high-tech industries. It has a skilled workforce and business-friendly policies that attract many multinational companies. - The economy grew rapidly in the late 20th century through export-oriented manufacturing and is now focused on high-value industries. It has a very open and competitive market economy with low taxes and barriers to trade.- Singapore offers opportunities in many growing industries and has a stable political system that prioritizes business. The workforce is highly educatedRemaking Singapore Case StudyRemaking Singapore Case StudyMahammad Khadafi This document provides an overview of Singapore's history and economic development from the 1800s to 2008.Key points include: - Singapore was founded as a British trading port in 1819 and gained independence in 1965.- Its early economy centered around entrepôt trade and it developed industrialization in the 1960s-70s.  - It transformed into a major Asian financial and shipping hub by the 1990s and 2000s, ranking highly on prosperity and competitiveness.- The economy consists of clusters like petrochemicals, finance, logistics, IT, biopharma, tourism, and education that the government continues developing.- By 2008 Singapore had reached a high level of prosperity but thenDevelopment of indian economy.pptxDevelopment of indian economy.pptxsamygs1 The document summarizes the development of the Indian economy. It discusses that India has one of the fastest growing economies in the world and ranks fourth in PPP. The key sectors driving growth are agriculture, manufacturing, and services. It also outlines some of the challenges India faces including poverty, unemployment, population growth, and the rural-urban divide. Infrastructure development and reforms in financial sectors are helping to support continued economic development. The document predicts India's economy will grow between 8-10% in the coming years and it could become one of the leading economies by 2020 if it maintains high growth rates.Singapore (Economic Setting)Singapore (Economic Setting)Jose Radin Garduque Singapore developed from a British trading post in 1819 to a major economic power through strategic policies. It began as an entrepôt with a duty-free port and later diversified its economy beyond manufacturing and financial services. Strict fiscal controls coupled with a free market approach led to one of the fastest growing economies in the world. Singapore is now a key global transportation and banking hub.Singapore: Economic SettingSingapore: Economic SettingJose Radin Garduque Singapore was founded as a British trading post in 1819 due to its strategic port location. When it gained independence in 1965, its economy was undeveloped with high unemployment. However, the government's free market policies and fiscal controls led to rapid economic growth, transforming Singapore into a major trade and manufacturing hub. It is now one of Asia's wealthiest nations with a highly developed port, transportation, and telecommunications infrastructure.Remaking singaporeRemaking singaporeNIDA Business School This document provides an overview of Singapore's economic development from 1965 to 2008. It discusses key events and policies that transformed Singapore from a newly independent country in 1965 with a GDP of $500 to a developed country in 2008 with a GDP of $37,597. It highlights Singapore's shift from an entrepôt economy to an export-oriented manufacturing hub in the 1960s-1970s. It also discusses Singapore's economic success as an "Asian Tiger" in the 1980s, challenges like the 1997 Asian Financial Crisis, and its ongoing efforts to diversify and mature its economy through the 2000s.Thailand’s EconomyThailand’s Economymarcpeter Thailand experienced different periods of economic development from 1960 to the present:I. A pre-boom period from 1960-1986 when import substitution industrialization protected domestic industries and large conglomerates dominated, leading Thailand to be called one of the "Asian Tigers." II. A boom period from 1987-1996 when export-oriented industrialization fueled rapid industrial and economic growth through expanding exports. III. The Asian Financial Crisis of 1997-1999 caused an economic downturn and massive business closures and restructuring, requiring IMF support. IV. In the post-crisis recovery period from 2000 onward, Thailand pursued financial restructuring, embraced foreign capital dependence, and promoted export-20160121 Singapore's productivity challenge - A historical perspective20160121 Singapore's productivity challenge - A historical perspectiveHawyee Auyong Singapore faced high unemployment and a rapidly growing population in the 1960s. A 1961 UN report recommended attracting foreign investment and allowing immigration to create jobs. This helped Singapore industrialize and achieve full employment by 1970 through labor-intensive manufacturing. However, Singapore began relying heavily on importing foreign workers in the 1970s to meet demand from investments, which created a long-term dependency on foreign labor and lower productivity growth compared to other Asian economies.Singapore's housing policies  Singapore's housing policies  Aliaa  Despite its relatively small land and unpromising outlook as a nation, Singapore progressed from a third world status in the 1960s to one of the highest income countries in the world today. Singapore has achieved a great and remarkable success in the housing sector; its successful development has been thanks to far-sighted and careful management of the economy by the government as well as well established policies. This report discusses these policies and its phases, goals, principles, challenges, and efforts towards achieving them.CH 2 MALAYSIAN ECONOMICCH 2 MALAYSIAN ECONOMICShadina Shah The document provides an overview of Malaysia's economic development plans from British colonization to modern times. It discusses how British policies focused on extracting raw materials and promoted racial divisions. After independence, the New Economic Policy (NEP) aimed to reduce poverty and restructure society. Subsequent plans like the National Development Policy (NDP) and National Vision Policy (NVP) maintained NEP's goals while pursuing balanced development. Vision 2020 articulated a vision for Malaysia to become a developed, united, and prosperous nation by 2020.The Singapore paradoxThe Singapore paradoxUniversity of West Indies The presentation explores the Singaporean development model since 1965, its main success and the challenges ahead.ATOM - SingaporeATOM - SingaporeAna Tan Singapore was founded as a British trading colony in 1819 and became independent in 1965. It has since become one of the world's most prosperous countries with a strong economy based on international trade and a per capita GDP equal to Western European nations. Singapore has a highly developed free market economy that depends on exports, particularly in electronics, pharmaceuticals, and financial services. The government practices minimal intervention in the free market.Singapore :)Singapore :)Ana Tan Singapore was founded as a British trading colony in 1819 and became independent in 1965. It has become one of the world's most prosperous countries with a strong economy based on international trade and a per capita GDP equal to Western European nations. Singapore has a highly developed free market economy that depends on exports, particularly in electronics and pharmaceuticals. The government practices minimal intervention and the country has a reputation for being easy to do business in and having low corruption.comparison of india,pakistan and china.pptxcomparison of india,pakistan and china.pptxSidhiSarika - India, China, and Pakistan are the three largest neighbors in Asia, with China being the most populous and India being the second most populous. - China has shifted from an agrarian to industrial and service economy through reforms, while India and Pakistan still rely heavily on agriculture.  - China's one-child policy helped reduce population growth but will lead to more elderly in the future. India and Pakistan still have high fertility rates.- China's economy has grown the fastest through industrialization and reforms, while growth has declined in India and Pakistan in recent decades.Researach  Paper on Industrial sector of bangladeshResearach  Paper on Industrial sector of bangladeshMohammod Al Emran This document provides an overview of the industrial development of Bangladesh over the past four decades. It discusses how sectors like agriculture, infrastructure, garments, shrimp farming, and energy have grown and contributed to the country's economic development. The document outlines the research questions and content, which focus on the performance and challenges of Bangladesh's industrial sector since liberation, as well as the relationships between industry and achieving Millennium Development Goals. It provides historical details on the improvements and growth in agricultural production, infrastructure like roads and telecommunications, exports of garments and shrimp, and the development of natural gas resources for energy.Political and Economic Geography of SEA.presentation.pdfPolitical and Economic Geography of SEA.presentation.pdfKylaMaxineJalandoni2 Southeast Asia encompasses regions south of China and east of India, including countries with diverse political boundaries, economies, and sizes. The region has experienced significant economic transformation tied to its evolving role in regional and global trade. While Southeast Asia has historically served as a supplier of resources and hub for trade, its economies have increasingly industrialized and become integrated into regional and global production networks under influences like import substitution, export orientation, and foreign investment.Economy of malaysia_(1)Economy of malaysia_(1)abhinav2223 Malaysia has a population of 28.96 million people and its economy is dominated by rubber and palm oil processing, manufacturing, and mining. The country experienced consistent growth between the 1960s and 1980s but was impacted by a recession in the early 1980s that depressed commodity prices and increased foreign debt. However, increased diversification into manufacturing helped renew growth. Currently the economy remains vulnerable to external shocks but high-skilled manufacturing and a stable political environment have supported continued economic expansion.New economic policyNew economic policyasyapable The document summarizes Malaysia's development plans from 1971 to 2000. The New Economic Policy (NEP) from 1971-1990 aimed to eliminate poverty and restructure society to address racial imbalances through equitable growth and government participation in the economy. The National Development Policy (NDP) from 1991-2000 continued the NEP's goals with a focus on balanced development, human capital formation, and greater private sector involvement. Both plans achieved increased GDP, reduced poverty, and greater Bumiputera participation in the economy.Similar to Singapore &amp; malaysia economic analysis (20)Remaking singaporeRemaking singapore Development of sri lanka in South Asian contextDevelopment of sri lanka in South Asian context Global macro economics project reportGlobal macro economics project report Remaking Singapore Case StudyRemaking Singapore Case Study Development of indian economy.pptxDevelopment of indian economy.pptx Singapore (Economic Setting)Singapore (Economic Setting) Singapore: Economic SettingSingapore: Economic Setting Remaking singaporeRemaking singapore Thailand’s EconomyThailand’s Economy 20160121 Singapore's productivity challenge - A historical perspective20160121 Singapore's productivity challenge - A historical perspective Singapore's housing policies  Singapore's housing policies   CH </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.sttelemediagdc.com/sg-en/newsroom/ST-Telemedia-Expands-Data-Centre-Footprint-in-Singapore</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2015 Q1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ST Telemedia Expands Data Centre Footprint in Singapore | STT GDC    Skip to main contentServicesLocationsNews &amp; ResourcesAbout UsPartnersGlobalServicesLocationsNews &amp; ResourcesAbout UsPartnersGlobalServicesColocationConnectivitySupport ServicesLocationsLearn MoreSingaporeNews &amp; ResourcesNewsroomResource CentreAbout UsAbout the CompanyOur LeadershipDiversity and InclusionESGOur ESG ProgressAccreditationGroup of CompaniesCareersCorporate GovernancePartnersLearn MoreEnquireContactEnglish中文English한국어English日本EnglishTiếng ViệtBackServicesServicesColocationConnectivitySupport ServicesLocationsLocationsLearn MoreSingaporeNews &amp; ResourcesNews &amp; ResourcesNewsroomResource CentreAbout UsAbout UsAbout the CompanyOur LeadershipDiversity and InclusionESGOur ESG ProgressAccreditationGroup of CompaniesCareersCorporate GovernancePartnersPartnersLearn MoreEnquireGlobalContactEnglish中文English한국어English日本EnglishTiếng ViệtBreadcrumbNewsroom                            ST Telemedia Expands Data Centre Footprint in Singapore                                                            MAR172015NEWSST Telemedia Expands Data Centre Footprint in Singapore                  Mar 17, 2015              STT GDCSHARELink copied!Singapore, 17 March 2015  - Singapore Technologies Telemedia (ST Telemedia), a strategic investor focused on communications, media and technology business globally, marks another milestone with the recent completion of its acquisition of land to develop into a high quality, state-of-the-art flagship data centre in Singapore. Today’s announcement follows ST Telemedia’s data centre investment in China’s GDS Services last year.The Singapore facility is integral to ST Telemedia's long-term global data centre plan. Strategically located at Defu Lane and in close proximity to mature data centre clusters, the 150,000 square feet facility will be built with the highest Tier III industry standards, and critical certifications such as LEED and BCA-IDA Green Mark. The facility will be supported by a team of experienced data centre experts with proven track record of execution capability and deep industry relationships.Demand for data centre space has outstripped supply globally and in Singapore primarily due to increasing digitisation and growth in the number of online users. According to BroadGroup's 2014 research report, utilisation of data centre space in Singapore is forecasted to remain strong at close to 90 percent by 2018.Singapore is well positioned as both Asias internet connectivity hub and Southeast Asia's data centre hub, housing more than 80 of the top 100 software and services companies, of which many have their regional or Asia-Pacific headquarters here. The Singapore flagship asset will provide a crucial presence for existing data centre investments and assets within the ST Telemedia group to tap on the region's strong data centre demand.Commenting on the investment, ST Telemedia's Executive Director, Mr Sio Tat Hiang, said, "ST Telemedia is excited to announce our data centre expansion in Singapore. We are entering the data centre market at an opportune time when the Singapore government is pushing forward its vision to be the world's first Smart Nation and data centres are important infrastructure to support this. The Singapore flagship will complement the network connectivity and service offerings of our existing data centre assets and drive greater operational and technical synergies, which will translate into a better value proposition for customers. Nearer to home, with the growing bilateral trade relations between Singapore and China, we see tremendous collaborative opportunities between our Singapore data centre strategy and GDS, our China data centre investment."He added: "We intend to leverage the combined experience, capabilities and expertise within the ST Telemedia Group to augment our strategy to build a distinctive and sustainable global data centre company with a dynamic business model. Development of the site is quickly taking shape and plans are underway to commence construction of the state-of-the-art flagship asset in Singapore."The Singapore flagship data centre will be carrier-neutral, offering customers a full suite of best-in-class and highly scalable data centre services including physical and virtual colocation, connectivity and infrastructure management which will also support the growth in the cloud services market.ST Telemedia is a pioneer in data centres in this region with experience dating back to the late 1990s where it introduced advanced internet exchange services into Asia. ST Telemedia launched i-STT in 2000 which was later merged into Equinix of the US. ST Telemedia was the largest strategic shareholder in Equinix, during which time, Equinix developed into one of the world's largest carrier-neutral and advanced data centre companies. ST Telemedia has since divested its interest in Equinix. Currently, its portfolio companies, Level 3 Communications owns and operates over 350 carrier-neutral data centre facilities throughout North America, Latin America and Europe; whilst GDS Services operates 17 high-availability carrier-neutral data centres in primary economic hubs across China.  Latest HappeningsNEWSST Telemedia Global Data Centres Deploys Renewable Generator Fuel in Singapore, Marking a Sustainability MilestoneJul 25, 2024NEWS ST Telemedia Global Data Centres Raises S$1.75 Billion from KKR-Led Consortium with SingtelJun 18, 2024Media ArticleAI-Ready Infrastructure – Keystone of Digital Economies in Asia-PacificJun 08, 2024Featured NewsNEWSST Telemedia Global Data Centres Deploys Renewable Generator Fuel in Singapore, Marking a Sustainability Milestone Singapore, 25 July 2024 – ST Telemedia Global Data Centres (STT GDC), one of the world’s fastest-growing data centre providers today announces the deployment of Hydrotreated Vegetable Oil (HVO) to its data centres in Singapore, as a renewable fuel replacing conventional diesel fuel for backup generators. ST Telemedia Global Data Centres Deploys Renewable Generator Fuel in Singapore, Marking a Sustainability Milestone        Jul 25, 2024      NEWS ST Telemedia Global Data Centres Raises S$1.75 Billion from KKR-Led Consortium with Singtel SINGAPORE – June 18, 2024 – ST Telemedia Global Data Centres (‘STT GDC’ or the ‘Company’), a leading data centre colocation services provider, KKR, a leading global investment firm, and Singtel, Asia’s leading communications technology group, today jointly announced the signing of definitive agreements under which a KKR-led consortium of KKR (on behalf of funds managed by it) and Singtel (the ‘Consortium’) will invest S$1.75 billion (~US$1.3 billion) in STT GDC. This transaction marks the largest digital infrastructure investment in Southeast Asia to date in 2024. ST Telemedia Global Data Centres Raises S$1.75 Billion from KKR-Led Consortium with Singtel        Jun 18, 2024      MEDIA ARTICLEAI-Ready Infrastructure – Keystone of Digital Economies in Asia-Pacific In the annals of economic history, transformative advancements in infrastructure have often ushered in new eras of prosperity and progress. Just as railways played a pivotal role in global economic transformation during the Industrial Revolution, the growth of modern digital economies of today are built on advancements in both current and future technology.AI-Ready Infrastructure – Keystone of Digital Economies in Asia-Pacific        Jun 08, 2024      ARTICLETechnological Trends and Sustainability: Insights From Our Group Chief Technology Officer There is no bigger trend impacting the data centre industry than generative AI. AI is projected to contribute up to US$15.7 trillion to the global economy by 2030. As businesses and individuals harness the vast potential of AI, it will bring enormous benefits across diverse domains including scientific research, business productivity, automation, and medical diagnosis.Technological Trends and Sustainability: Insights From Our Group Chief Technology Officer        Jun 06, 2024      NEWSST Telemedia Global Data Centres Releases 2023 ESG Report, Achieves Key Interim Environmental Targets Ahead of Schedule Singapore, 5 June 2024: On this World Environment Day, ST Telemedia Global Data Centres (STT GDC), a leading data centre colocation services provider headquartered in Singapore published today its 2023 Environmental, Social and Governance (ESG) report. The report outlines the progress toward STT GDC’s ESG targets, as well as its three big-picture goals – Carbon-Neutral Data Centre Operations by 2030; a Safe, Secure, Diverse and Inclusive Workplace; and Ethical &amp; Responsible Business.ST Telemedia Global Data Centres Releases 2023 ESG Report, Achieves Key Interim Environmental Targets Ahead of Schedule        Jun 05, 2024      NEWSST Telemedia Global Data Centres Announces Availability of AI-Ready Data Centres Across Southeast Asia ST Telemedia Global Data Centres (STT GDC), one of the world’s fastest-growing data centre providers, is announcing artificial intelligence (AI) readiness in its data centres across Southeast Asia (SEA).ST Telemedia Global Data Centres Announces Availability of AI-Ready Data Centres Across Southeast Asia        May 30, 2024      NEWSST Telemedia Global Data Centres Expands into Vietnam through a Joint Venture with VNG to Build and Operate Data Centres Singapore and Ho Chi Minh City, Vietnam, 15 May 2024 – ST Telemedia Global Data Centres (STT GDC), one of the world’s fastest-growing data centre providers, has announced a joint venture partnership with VNG Corporation, a leading technology company in Vietnam, for the development, construction and operation of data centre projects in Ho Chi Minh City, Vietnam.   ST Telemedia Global Data Centres Expands into Vietnam through a Joint Venture with VNG to Build and Operate Data Centres        May 15, 2024      NEWSST Telemedia Global Data Centres Commences Construction for Second Data Centre at Goodman Business Park in Tokyo Singapore and Tokyo, Japan: April 12, 2024 – ST Telemedia Global Data Centres (STT GDC), one of the world’s fastest-growing data centre providers, has announced the groundbreaking for its second data centre facility in Tokyo – STT Tokyo 2 – to support the demand for critical digital infrastructure in the country. Construction is underway and the facility is expected to be ready for service by early 2027. ST Telemedia Global Data Centres Commences Construction for Second Data Centre at Goodman Business Park in Tokyo        Apr 12, 2024      NEWSVIRTUS Unveils New Data Centre Development in Saunderton, Buckinghamshire VIRTUS' commitment to UK market with announcement of 75MW AI Ready campus – North-west of London.VIRTUS Unveils New Data Centre Development in Saunderton, Buckinghamshire        Feb 19, 2024      View All   Scan to follow us on WeChatCONTACT                3 Temasek Avenue, #28-01 Centennial Tower, Singapore 039190            +65 6808 3388ServicesColocationConnectivitySupport ServicesLocationsSingaporeNews &amp; ResourcesNewsroomResource CentreAbout UsAbout the CompanyOur LeadershipDiversity and InclusionESGOur ESG ProgressAccreditationGroup of CompaniesCareersCorporate GovernancePartnersEnquirePrivacy PolicyTerms of UseSite MapCopyright © 2024 STT GDC Pte Ltd </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.financeasia.com/article/dbs-backs-keppels-buyout-of-property-arm/393889</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2015 Q1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DBS backs Keppel's buyout of property arm  | FinanceAsiasearchaccount_circlemenuNewsMovesAwardsEventsSubscribeclose cancelsearch NewsInvestment LifecycleStartupsUnicornsMarketsDistressDeals &amp; TrendsEquityDebtM&amp;ADisruptionRainmakersProfilesMovesRegionsNorth AsiaSoutheast AsiaSouth AsiaAustralasiaRest Of WorldResearchEquityDebtBest Managed CompaniesFinance MinistersM&amp;ASustainable FinanceAwardsFinanceAsia AwardsAchievement AwardsAustralia Achievement AwardsAll AwardsEventsPhoto GallerySubscribeDBS backs Keppel's buyout of property arm DBS provides bilateral loan to Keppel Corp to fund its buyout of property arm Keppel Land for up to $2.6 billion. Denise WeeJanuary 26, 2015DBS is providing a bilateral loan to conglomerate Keppel Corp to finance the acquisition of shares in its property arm Keppel Land that it does not already own for up to S$3.2 billion ($2.6 billion).The proposed deal is the latest privatisation as the city state's developers are faced with growing headwinds.The size of the loan has not been disclosed but, according to a source familiar with the matter, part of the offer will be funded by DBS and the rest by Keppel Corp's own internal cash. The Singaporean lender is also advising Keppel Corp on the buyout together with Credit Suisse.Keppel Corp on Friday made a cash offer for all the remaining shares of its subsidiary Keppel Land that values the latter at up to S$7.1 billion. Keppel Corp already owns 54.6% of Keppel Land.After years of large rises, Singapore's property market is poised to see declines this year. Similarly, there are expectations that property prices will also fall in China, where Keppel Land and other Singapore developers have exposure.According to a source familiar with the matter, Keppel Corp is taking a long-term bet on property, which is an area it already knows well. "Keppel Corp wants to grow its revenue and has low net debt, which means it has capacity to take on debt on its balance sheet," said the source familiar with the matter.Keppel Corp's move adds to recent privatisations last year, including CapitaLand's privatisation of CapitaMalls Asia and United Industrial Corp's privatisation of Singapore Land."This is a continuation of an ongoing theme. Most of the Singapore developers are trading at a discount to net asset value and the environment is not conducive for them," said one M&amp;A banker away from the deal. "It is surprising that Keppel Corp has chosen to do this as their share price is off about 30% due to the fall in oil prices," he added.Valuations for Singapore developers remain undemanding, which means there could be more privatisations ahead. According to a Jefferies research report on January 26, other candidates for privatisation could include Wing Tai Holdings, Ho Bee and Wheelock &amp; Co, which are trading below book value and have concentrated shareholdings. The three developers are trading at price to book of 0.48 times, 0.62 times and 0.71 times, the report added.Most Singapore property developers have also been injecting properties into their real estate investment trusts (Reits), and raising capital at that level, reducing the need to for developers to raise capital (and stay listed).In addition, according to one analyst who declined to be named, developers with foreign shareholders are required to sell units of properties they develop within a certain amount of time or face penalties. This has put another constraint on listed Singapore developers which have foreign shareholders and made privatisation a more attractive route.Keppel Corp adopted a two-tier offer price approach to privatise Keppel Land. It has made a base offer of S$4.38 for each Keppel Land share. If acceptances exceed the 90% threshold level, which would enable it to exercise its rights of compulsory acquisition, it will raise the offer price to S$4.60.The S$4.60 share price values Keppel Land at a premium of 35% over the six-month volume weighted average price preceding the offer.Shares of both companies rose on Monday. Keppel Corp shares rose by 1% to S$8.16 and Keppel Land shares rose by 24% to S$4.55, at the upper band of the offer price. Keppel Corp said on Friday that it does not intend to raise its offer.Assuming full acceptance of the offer, Keppel Corp's earnings per share and net asset value per share for the financial year 2014 will increase by 13% and 4% respectively.                                ¬ Haymarket Media Limited. All rights reserved.                            Share our publication on social mediaM&amp;ADebtDisruptionBanksSoutheast Asia#reit#property#dbs#keppel land#acquisitions#loanShare our publication on social medialoopArticle limit is reached.Hello! You have used up all of your free articles on FinanceAsia.To obtain unlimited access to our award-winning exclusive news and analysis, we offer subscription packages, including single user, team subscription (2-5 users), or office-wide licences. To help you and your colleagues access our proprietary content, please contact us at [email protected], or +(852) 2122 5222See Subscription PlansFollowUsProductsMagazineNewsletterNewsletter SignupRSS feedAdvertiseWho We AreWhat We DoTrust PrinciplesEditor's DeskTalk To UsCareerTerms &amp; ConditionsContact UsHaymarket Financial MediaAsianInvestorCorporateTreasurer©Haymarket Media Ltd.Click to Skip AdContinue to site in 10 second(s)Skip   </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.iottribe.org/</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2015 Q1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>IoT Tribe – We shape the future of disruptive technologies and their adoption across industries globally.  Skip to content AcceleratorsInternet of Things AcceleratorAbout UsCareersPartnershipsLatest News  MenuAcceleratorsInternet of Things AcceleratorAbout UsCareersPartnershipsLatest News Linkedin Twitter  What We DoProgrammesCHISEL Healthcare InnomatchDeepTech AcceleratorConnected Places AcceleratorDecarboniseSY AcceleratorGREAT Legal Services UK Lawtech Singapore ProgrammeKorea Tourism Startup Center IR Demo DayIndustrial Tech AcceleratorLondon Tech Calling ProgrammeRetail Tech AcceleratorSpace Endeavour AcceleratorUK-ASEAN Digital Innovation ShowcaseUK-Malaysia Digital Innovation ProgrammeLaunch a Tech Programme with UsNet Zero Tech AlliancePartnershipsEvents &amp; NewsOur EventsLatest NewsDeep DivesAbout UsCareersContact Us  MenuWhat We DoProgrammesCHISEL Healthcare InnomatchDeepTech AcceleratorConnected Places AcceleratorDecarboniseSY AcceleratorGREAT Legal Services UK Lawtech Singapore ProgrammeKorea Tourism Startup Center IR Demo DayIndustrial Tech AcceleratorLondon Tech Calling ProgrammeRetail Tech AcceleratorSpace Endeavour AcceleratorUK-ASEAN Digital Innovation ShowcaseUK-Malaysia Digital Innovation ProgrammeLaunch a Tech Programme with UsNet Zero Tech AlliancePartnershipsEvents &amp; NewsOur EventsLatest NewsDeep DivesAbout UsCareersContact Us Linkedin Twitter BUILDING A TECHNOLOGY-ENABLED FUTURE TOGETHER We shape the future of disruptive technologies and their adoption across industries globally.  Partner with Us what we doUnlock tech driven opportunities and gain an unfair advantage IoT Tribe accelerates the growth and adoption of disruptive technologies globally. As a trusted partner to corporates, government agencies, investors, startups, SMEs, and other ecosystem players across industry verticals worldwide, IoT Tribe brings together communities where tech talent &amp; partnerships can thrive.    30+Programmes &amp; InitiativesLaunched to date, effective enabling tech growth and adoption across industries and markets. 500+Startups, Scaleups &amp; SMEs From over 30 countries have come through one or more of IoT Tribe’s programmes and its predecessor, Startup Scaleup 150+ Leading Corporates &amp; Public AgenciesEngaged in our programmes as partners, sponsors, enablers and technology adopters. &gt;$270mRaised by Alumni Startups &amp; ScaleupsDuring or post-programme, to date, constantly growing and bringing differential value to industry 200+ Mentors &amp; Experts in the Tribe Supporting the growth of startups, scaling up their businesses and deployment of technologies Our flagship tech ecosystems Connecting industry leaders with disruptive technologies &amp; the broader tech ecosystem  DECARBONISE SYScaling up IoT technologies to drive the decarbonisation of cities, industries and supply chainsUK-Malaysia Digital Innovation Programme Connecting UK tech businesses with leading Malaysian corporates to take advantage of the fast-growing market opportunities in the regionIndustrial TechAccelerating cutting-edge industrial technologies and their adoption in UK manufacturingDeeptechPowering up disruptive deeptech startups for frictionless corporate adoption of deep technologiesConnected PlacesEnabling intelligent systems and advanced analytics for smarter and more sustainable industriesLondon Tech CallingFast-tracking Singapore scaleups and SMEs' expansion to the UK and beyondRetail TechReactivating the High Street after COVID-19 through advanced digital technologiesSpace EndeavourUnlocking the potential of space technologies and satellite data across industriesUK-ASEAN Digital Innovation ShowcaseDemonstrating the best of UK capabilities and solving Southeast Asian corporates’ challenges Launch a New Tech Ecosystem With UsWhat we do Supercharging Technology Growth &amp; Adoption rocket 4 Accelerator Focused on specific technological themes, our accelerators offer corporates and public agencies access to an ecosystem of validated disruptive technologies to fast-track technological adoption and unlock new sources of value collaboratively.We work with you to identify technologies that bring the greatest impact to your business or community, establish technology adoption roadmaps, and curate a programme that would effectively source, harness and scale best-in-class technologies. Co-create A New Acceleratormolecule 2 Market Access &amp; Expansion Through our hubs in London and Singapore, we have facilitated the market expansion of scaleups &amp; SMEs from over 30 markets into and across Europe and Asia Pacific.We work with public agencies to create landing pads to attract companies into their region, as well as run dedicated programmes and initiatives to support scaleups &amp; SMEs in exploring new business opportunities and market expansion into new markets. LAUNCH A NEW PROGRAMMECreated by Sita Raisitafrom the Noun Project Open Innovation &amp; Tech Adoption We enable organisations across industries to disrupt the future and solve their challenges by seeking for revolutionary solutions from startups, scaleups &amp; SMEs through Open Innovation Challenges we facilitate.And through our Tech Studios©, we help organisations establish fit and shape the solutions together with validated startups, scaleups and SMEs, driving strategic and technological alignment to deliver on real results through Proof of Value pilots. SUPERCHARGE TECH ADOPTION Corporate Venturing We work with organisations globally to identify new opportunities for growth, develop cutting-edge solutions internally to stay competitive in a rapidly evolving landscape and create new value for your customers.By leveraging our expertise and global ecosystem, we provide support throughout the corporate venturing process, from ideation and concept development, clarifying sources of value, to product launch, go-to-market and scaling up. PARTNER WITH USWe offer our partners unparalleled access to technologies and partnerships partner with usWho We Work With Since our inception, we have worked with the world’s leading corporates and public agencies to drive technological disruption and adoption. The following are a selection of partners we have worked with to curate tech programmes and initiatives, or develop pilots with our startups.                         Partner with usBE PART OF THE TRIBE Be part of the Tribe  EmailMobileMessage Send MessageIoT Tribe We are here to connect you with global tech ecosystems. We shape the future of disruptive technologies and accelerate their adoption.  Company About Us What We DoPartnershipsLatest News Events Deep DivesCareersLegalAccelerators Connected Places Decarbonise SYDeep TechIndustrial TechRetail TechSpace EndeavourOther Programmes  CHISEL Heathcare InnoMatch GREAT Legal Services UK Lawtech Singapore Programme Korea Tourism Startup Center IR Demo DayLondon Tech CallingUK-ASEAN Digital Innovation ShowcaseUK-Malaysia Digital Innovation ProgrammeNet Zero Tech Alliance Corporate Memberships Climate Squads EventsLondon (Global Headquarters) 71-75 Shelton Street, Covent Garden, London, United Kingdom, WC2H 9JQ Registered at Company’s House Nº10593145 Email: team@iottribe.org Singapore (Asia Pacific) 160 Robinson Road #14-04  Singapore 068914UEN: 201936010C Email: singapore@iottribe.org Join Our Community Don’t miss out on our latest events, insights, as well as updates by subscribing to our monthly newsletter.  I agree to the Terms and Conditions.By submitting, you agree to receive email communications from IoT Tribe's Terms and Conditions.  Email Submit © Copyright 2023 by IoT Tribe Linkedin Twitter We use cookies to help us improve this site and your experience. Cookie PolicyCookies PreferencesAcceptManage consentClosePrivacy Overview This website uses cookies to improve your experience while you navigate through the website. Out of these, the cookies that are categorized as necessary are stored on your browser as they are essential for the working of basic functionalities of the website. We also use third-party cookies that help us analyze and understand how you use this website. These cookies will be stored in your browser only with your consent. You also have the option to opt-out of these cookies. But opting out of some of these cookies may affect your browsing experience. NecessaryNecessaryAlways EnabledNecessary cookies are absolutely essential for the website to function properly. These cookies ensure basic functionalities and security features of the website, anonymously.CookieDurationDescriptioncookielawinfo-checkbox-analytics11 monthsThis cookie is set by GDPR Cookie Consent plugin. The cookie is used to store the user consent for the cookies in the category "Analytics".cookielawinfo-checkbox-functional11 monthsThe cookie is set by GDPR cookie consent to record the user consent for the cookies in the category "Functional".cookielawinfo-checkbox-necessary11 monthsThis cookie is set by GDPR Cookie Consent plugin. The cookies is used to store the user consent for the cookies in the category "Necessary".cookielawinfo-checkbox-others11 monthsThis cookie is set by GDPR Cookie Consent plugin. The cookie is used to store the user consent for the cookies in the category "Other.cookielawinfo-checkbox-performance11 monthsThis cookie is set by GDPR Cookie Consent plugin. The cookie is used to store the user consent for the cookies in the category "Performance".viewed_cookie_policy11 monthsThe cookie is set by the GDPR Cookie Consent plugin and is used to store whether or not user has consented to the use of cookies. It does not store any personal data. FunctionalFunctionalFunctional cookies help to perform certain functionalities like sharing the content of the website on social media platforms, collect feedbacks, and other third-party features.PerformancePerformancePerformance cookies are used to understand and analyze the key performance indexes of the website which helps in delivering a better user experience for the visitors.AnalyticsAnalyticsAnalytical cookies are used to understand how visitors interact with the website. These cookies help provide information on metrics the number of visitors, bounce rate, traffic source, etc.AdvertisementAdvertisementAdvertisement cookies are used to provide visitors with relevant ads and marketing campaigns. These cookies track visitors across websites and collect information to provide customized ads.OthersOthersOther uncategorized cookies are those that are being analyzed and have not been classified into a category as yet.SAVE &amp; ACCEPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.ft.com/content/e0394830-dd28-3cec-8c4f-740f1b4765a9</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2015 Q1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Malaysia trims mega-project near Singapore, report saysAccessibility helpSkip to navigationSkip to contentSkip to footerSign InSubscribeOpen side navigation menuOpen search barFinancial TimesSubscribeSign InSearch the FTSearchClose search barHomeWorldSectionsWorld HomeIsrael-Hamas warGlobal EconomyUKUSChinaAfricaAsia PacificEmerging MarketsEuropeWar in UkraineAmericasMiddle East &amp; North AfricaMost ReadBiden says he is ‘passing the torch’ to save US democracyReeves to pave way for Budget tax risesParis brasseries and shops reel from Olympics lockdownSeven Tory MPs signal they hope to stand in party leadership electionHarris vs Trump: America’s sudden gender electionUSSectionsUS HomeUS EconomyInvesting in AmericaUS CompaniesUS Politics &amp; PolicyUS Presidential Election 2024Most ReadBiden says he is ‘passing the torch’ to save US democracyHarris vs Trump: America’s sudden gender electionWill US companies keep faith in the ‘Texas miracle’?Vance and Harris scramble US dealmakers’ election strategiesNetanyahu urges US to stand with Israel in face of Gaza war protestsCompaniesSectionsCompanies HomeEnergyFinancialsHealthIndustrialsMediaProfessional ServicesRetail &amp; ConsumerTech SectorTelecomsTransportMost ReadRevolut secures UK banking licence after 3-year wait Paris brasseries and shops reel from Olympics lockdownHow Citi’s error-riddled loan reports led to a $136mn fine US markets suffer worst day since 2022 as Tesla and AI stocks fallWill US companies keep faith in the ‘Texas miracle’?TechSectionsTech HomeArtificial intelligenceSemiconductorsCyber SecuritySocial MediaMost ReadUS markets suffer worst day since 2022 as Tesla and AI stocks fallThe problem of ‘model collapse’: how a lack of human data limits AI progressAlphabet’s M&amp;A flops underscore its strategic dilemmaTesla shares tumble as profits slump and Musk delays ‘robotaxi’ launchLessons from the global IT outageMarketsSectionsMarkets HomeAlphavilleMarkets DataCryptofinanceCapital MarketsCommoditiesCurrenciesEquitiesWealth ManagementMoral MoneyETF HubFund ManagementTradingMost ReadRevolut secures UK banking licence after 3-year wait How Citi’s error-riddled loan reports led to a $136mn fine US markets suffer worst day since 2022 as Tesla and AI stocks fallVance and Harris scramble US dealmakers’ election strategiesTech stocks slide in Europe and Asia as Wall Street sell-off goes globalClimateOpinionSectionsOpinion HomeColumnistsThe FT ViewThe Big ReadLexObituariesLettersMost ReadHarris vs Trump: America’s sudden gender electionThe Middle East’s problems extend far beyond GazaWhen five go mad on the motorwaysMacau’s Portuguese strive to preserve their cultural heritageBusinesses are counting the likely cost of ‘heatflation’LexWork &amp; CareersSectionsWork &amp; Careers HomeBusiness School RankingsBusiness EducationEurope's Start-Up HubsEntrepreneurshipRecruitmentBusiness BooksBusiness TravelWorking ItMost ReadClifford Chance hands partners £2mn as profits surgeStart-ups attract chief legal officers in search of a challengeItaly is tying itself in knots over business gender quotasEdinburgh pubs: a connoisseur’s selectionCiti’s new head of banking granted $40mn in stockLife &amp; ArtsSectionsLife &amp; Arts HomeArtsBooksFood &amp; DrinkFT MagazineHouse &amp; HomeStyleTravelFT GlobetrotterMost ReadEight smart buys to snap up this summerIt’s time to resist the tyranny of Instagram interiorsThe Decameron, Netflix — black comedy sends up the Black DeathForget history — London’s latest museum is all about the selfieDeadpool &amp; Wolverine film — Ryan Reynolds and Hugh Jackman in X-rated X-Men universeHTSIMenuSearchHomeWorldUSCompaniesTechMarketsClimateOpinionLexWork &amp; CareersLife &amp; ArtsHTSIFinancial TimesSubscribeSign InSearch the FTSearchClose search barMalaysia trims mega-project near Singapore, report saysSubscribe to unlock this articleTo read this article for freeRegister nowOnce registered, you can:Read free articlesGet our Editor's Digest and other newslettersFollow topics and set up personalised eventsAccess Alphaville: our popular markets and finance blogRegister nowWhat's includedGlobal news &amp; analysisExpert opinionSpecial featuresFirstFT newsletterVideos &amp; PodcastsAndroid &amp; iOS appFT Edit app10 gift articles per monthExplore more offers.Standard DigitalFT Digital EditionPremium DigitalPrint + Premium DigitalPrintTrialFT EditFT ProfessionalWeekend Print + Standard DigitalWeekend Print + Premium Digitalwasnow S$1 for 4 weeksThen S$99 per month. Complete digital access to quality FT journalism. Cancel anytime during your trial.SelectSelectSelectSelectSelectSelectSelectSelectSelectSelectWhat's included Global news &amp; analysisExpert opinionFT App on Android &amp; iOSFT Edit appFirstFT: the day's biggest stories20+ curated newslettersFollow topics &amp; set alerts with myFTFT Videos &amp; Podcasts20 monthly gift articles to shareLex: FT's flagship investment column15+ Premium newsletters by leading expertsFT Digital Edition: our digitised print editionWeekday Print EditionFT WeekendFT Digital EditionGlobal news &amp; analysisExpert opinionSpecial featuresExclusive FT analysisFT Digital EditionGlobal news &amp; analysisExpert opinionSpecial featuresExclusive FT analysisGlobal news &amp; analysisExpert opinionFT App on Android &amp; iOSFT Edit appFirstFT: the day's biggest stories20+ curated newslettersFollow topics &amp; set alerts with myFTFT Videos &amp; Podcasts10 monthly gift articles to shareGlobal news &amp; analysisExpert opinionFT App on Android &amp; iOSFT Edit appFirstFT: the day's biggest stories20+ curated newslettersFollow topics &amp; set alerts with myFTFT Videos &amp; Podcasts20 monthly gift articles to shareLex: FT's flagship investment column15+ Premium newsletters by leading expertsFT Digital Edition: our digitised print editionEverything in PrintWeekday Print EditionFT WeekendFT Digital EditionGlobal news &amp; analysisExpert opinionSpecial featuresExclusive FT analysisPlusEverything in Premium DigitalEverything in Standard DigitalGlobal news &amp; analysisExpert opinionSpecial featuresFirstFT newsletterVideos &amp; PodcastsFT App on Android &amp; iOSFT Edit app10 gift articles per monthExclusive FT analysisPremium newslettersFT Digital Edition10 additional gift articles per monthMake and share highlightsFT WorkspaceMarkets data widgetSubscription ManagerWorkflow integrationsOccasional readers go freeVolume discountFT Weekend Print deliveryPlusEverything in Standard DigitalFT Weekend Print deliveryPlusEverything in Premium DigitalStandard DigitalFT Digital EditionPremium DigitalPrint + Premium DigitalPrintTrialFT EditFT ProfessionalWeekend Print + Standard DigitalWeekend Print + Premium Digitalwasnow S$36 per 3 monthsToday's FT newspaper for easy reading on any device. This does not include ft.com or FT App access.SelectSelectSelectSelectSelectSelectSelectSelectSelectSelectWhat's included Global news &amp; analysisExpert opinionFT App on Android &amp; iOSFT Edit appFirstFT: the day's biggest stories20+ curated newslettersFollow topics &amp; set alerts with myFTFT Videos &amp; Podcasts20 monthly gift articles to shareLex: FT's flagship investment column15+ Premium newsletters by leading expertsFT Digital Edition: our digitised print editionWeekday Print EditionFT WeekendFT Digital EditionGlobal news &amp; analysisExpert opinionSpecial featuresExclusive FT analysisFT Digital EditionGlobal news &amp; analysisExpert opinionSpecial featuresExclusive FT analysisGlobal news &amp; analysisExpert opinionFT App on Android &amp; iOSFT Edit appFirstFT: the day's biggest stories20+ curated newslettersFollow topics &amp; set alerts with myFTFT Videos &amp; Podcasts10 monthly gift articles to shareGlobal news &amp; analysisExpert opinionFT App on Android &amp; iOSFT Edit appFirstFT: the day's biggest stories20+ curated newslettersFollow topics &amp; set alerts with myFTFT Videos &amp; Podcasts20 monthly gift articles to shareLex: FT's flagship investment column15+ Premium newsletters by leading expertsFT Digital Edition: our digitised print editionEverything in PrintWeekday Print EditionFT WeekendFT Digital EditionGlobal news &amp; analysisExpert opinionSpecial featuresExclusive FT analysisPlusEverything in Premium DigitalEverything in Standard DigitalGlobal news &amp; analysisExpert opinionSpecial featuresFirstFT newsletterVideos &amp; PodcastsFT App on Android &amp; iOSFT Edit app10 gift articles per monthExclusive FT analysisPremium newslettersFT Digital Edition10 additional gift articles per monthMake and share highlightsFT WorkspaceMarkets data widgetSubscription ManagerWorkflow integrationsOccasional readers go freeVolume discountFT Weekend Print deliveryPlusEverything in Standard DigitalFT Weekend Print deliveryPlusEverything in Premium DigitalStandard DigitalFT Digital EditionPremium DigitalPrint + Premium DigitalPrintTrialFT EditFT ProfessionalWeekend Print + Standard DigitalWeekend Print + Premium Digitalwasnow S$59 per monthEssential digital access to quality FT journalism on any device. Pay a year upfront and save 20%.SelectSelectSelectSelectSelectSelectSelectSelectSelectSelectWhat's included Global news &amp; analysisExpert opinionFT App on Android &amp; iOSFT Edit appFirstFT: the day's biggest stories20+ curated newslettersFollow topics &amp; set alerts with myFTFT Videos &amp; Podcasts20 monthly gift articles to shareLex: FT's flagship investment column15+ Premium newsletters by leading expertsFT Digital Edition: our digitised print editionWeekday Print EditionFT WeekendFT Digital EditionGlobal news &amp; analysisExpert opinionSpecial featuresExclusive FT analysisFT Digital EditionGlobal news &amp; analysisExpert opinionSpecial featuresExclusive FT analysisGlobal news &amp; analysisExpert opinionFT App on Android &amp; iOSFT Edit appFirstFT: the day's biggest stories20+ curated newslettersFollow topics &amp; set alerts with myFTFT Videos &amp; Podcasts10 monthly gift articles to shareGlobal news &amp; analysisExpert opinionFT App on Android &amp; iOSFT Edit appFirstFT: the day's biggest stories20+ curated newslettersFollow topics &amp; set alerts with myFTFT Videos &amp; Podcasts20 monthly gift articles to shareLex: FT's flagship investment column15+ Premium newsletters by leading expertsFT Digital Edition: our digitised print editionEverything in PrintWeekday Print EditionFT WeekendFT Digital EditionGlobal news &amp; analysisExpert opinionSpecial featuresExclusive FT analysisPlusEverything in Premium DigitalEverything in Standard DigitalGlobal news &amp; analysisExpert opinionSpecial featuresFirstFT newsletterVideos &amp; PodcastsFT App on Android &amp; iOSFT Edit app10 gift articles per monthExclusive FT analysisPremium newslettersFT Digital Edition10 additional gift articles per monthMake and share highlightsFT WorkspaceMarkets data widgetSubscription ManagerWorkflow integrationsOccasional readers go freeVolume discountFT Weekend Print deliveryPlusEverything in Standard DigitalFT Weekend Print deliveryPlusEverything in Premium DigitalTerms &amp; Conditions applyExplore our full range of subscriptions.DigitalExplore digital &gt;PrintExplore Print &gt;Print + digitalExplore Print + Digital &gt;Teams or organisationsFind out more &gt;Check whether you already have access via your university or organisation.Why the FT?See why over a million readers pay to read the Financial Times.Find out whyUseful linksSupportView Site TipsHelp CentreContact UsAbout UsAccessibilitymyFT TourCareersLegal &amp; PrivacyTerms &amp; ConditionsPrivacy PolicyCookie PolicyManage CookiesCopyrightSlavery Statement &amp; PoliciesServicesShare News Tips SecurelyIndividual SubscriptionsProfessional SubscriptionsRepublishingExecutive Job SearchAdvertise with the FTFollow the FT on XFT ChannelsFT SchoolsToolsPortfolioFT AppFT Digital EditionFT EditAlerts HubBusiness School RankingsSubscription ManagerNews feedNewslettersCurrency ConverterCommunity &amp; EventsFT CommunityFT Live EventsFT ForumsBoard Director ProgrammeMore from the FT GroupMarkets data delayed by at least 15 minutes. © THE FINANCIAL TIMES LTD 2024. FT and ‘Financial Times’ are trademarks of The Financial Times Ltd.The Financial Times and its journalism are subject to a self-regulation regime under the FT Editorial Code of Practice.Close side navigation menuEdition:InternationalUKSearch the FTSearchSubscribe for full accessTop sectionsHomeWorldShow more WorldIsrael-Hamas warGlobal EconomyUKUSChinaAfricaAsia PacificEmerging MarketsEuropeWar in UkraineAmericasMiddle East &amp; North AfricaUSShow more USUS EconomyInvesting in AmericaUS CompaniesUS Politics &amp; PolicyUS Presidential Election 2024CompaniesShow more CompaniesEnergyFinancialsHealthIndustrialsMediaProfessional ServicesRetail &amp; ConsumerTech SectorTelecomsTransportTechShow more TechArtificial intelligenceSemiconductorsCyber SecuritySocial MediaMarketsShow more MarketsAlphavilleMarkets DataCryptofinanceCapital MarketsCommoditiesCurrenciesEquitiesWealth ManagementMoral MoneyETF HubFund ManagementTradingClimateOpinionShow more OpinionColumnistsThe FT ViewThe Big ReadLexObituariesLettersLexWork &amp; CareersShow more Work &amp; CareersBusiness School RankingsBusiness EducationEurope's Start-Up HubsEntrepreneurshipRecruitmentBusiness BooksBusiness TravelWorking ItLife &amp; ArtsShow more Life &amp; ArtsArtsBooksFood &amp; DrinkFT MagazineHouse &amp; HomeStyleTravelFT GlobetrotterPersonal FinanceShow more Personal FinanceProperty &amp; MortgagesInvestmentsPensionsTaxBanking &amp; SavingsAdvice &amp; CommentNext ActHTSISpecial ReportsFT recommendsAlphavilleFT EditLunch with the FTFT Globetrotter#techAsiaMoral MoneyVisual and data journalismNewslettersVideoPodcastsNews feedFT Live EventsFT ForumsBoard Director ProgrammemyFTPortfolioFT Digital EditionCrosswordOur AppsHelp CentreSubscribeSign In</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.icbc-ltd.com/icbc/en/newsupdates/icbc%20news/IndustrialandCommercialBankofChinaLimitedCompletesAcquisitionofMajorityStakeinStandardBankPlc.htm</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2015 Q1</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Industrial and Commercial Bank of China Limited Completes Acquisition of Majority Stake in Standard Bank Plc-Home-ICBC ChinaHomePersonal BankingPersonal FinanceE-bankingBank CardPrecious MetalsGlobal Market  Corporate BankingE-bankingCorporate FinanceInstitutional BankingAssets Custody BusinessCorporate Annuity ServiceInvestment BankingAbout UsAbout ICBCCareerCustomer ServiceCustomer ServiceFAQHome &gt;News Updates &gt;ICBC News                                                            Industrial and Commercial Bank of China Limited Completes Acquisition of Majority Stake in Standard Bank Plc                                       Beijing, February 2, 2015 - Industrial and Commercial Bank of China Limited (âICBCâ) today announced that it had signed on February 1, 2015 the closing documents with Standard Bank Group Limited (âSBGâ) in regard to the completion of the acquisition of a 60% stake in Standard Bank Plc. Headquartered in London, Standard Bank Plc formerly operated as a wholly owned subsidiary of Standard Bank London Holdings Limited, which is in turn controlled by SBG. Post completion, the joint venture, with operations in London, New York, Singapore, Dubai, Tokyo, Hong Kong and Shanghai, will focus on the global markets business and provide trading services in commodities, foreign exchange, interest rates, credit and equities to clients worldwide. Mr. JIANG Jianqing, Chairman of ICBC, stated, âChina is the worldâs largest consumer of commodities. Many Chinese corporates have become active participants in commodities trading and global capital markets.  This, along with the liberalization of Chinaâs interest rates and exchange rates, the internationalization of Chinaâs capital markets, the development of offshore RMB business, and the launching of the âOne Belt and One Roadâ (the Silk Road Economic Belt and the 21st Century Maritime Silk Road) initiative, as well as the acceleration of Chinese enterprisesâ overseas investment, has stimulated huge demand for global markets business. The acquisition of Standard Bank Plc is of strategic importance as ICBC proactively responds to this demand. The deal is also the first such transaction in which a Chinese bank enters the global markets business through the acquisition of an international bank. By leveraging the two shareholdersâ global network, business resources, client bases and overall capacity, the joint venture is expected to capitalize on its mature business model and industry expertise, explore new business opportunities, better service both ICBCâs and SBGâs client needs, and become the global markets platform that satisfies the strategic goals of both shareholders.âMr. Yi Huiman, President of ICBC, said, âFollowing the acquisition of a 20% stake in SBG in 2008 and the acquisition of a 80% stake in Standard Bank Argentina in 2012, this transaction is another significant cooperation between ICBC and SBG, and has showcased the close strategic partnership between the two companies. Following the acquisition and the subsequent integration of Standard Bank Plc, ICBC will be able to gradually enhance ICBCâs global markets service capability. At the same time, the joint venture will continue to provide high quality trading service to SBGâs African clients. ICBC has designated London as one of its core strategic markets for overseas business. ICBC established its wholly owned subsidiary, ICBC London, in 2003, and its London branch in 2014.  The acquisition of Standard Bank Plc is conducive for ICBC to establish a UK based financial services platform that can leverage capabilities of each of ICBCâs UK entities to achieve greater synergies.  Through this platform, ICBC can play an even bigger role in the Sino-UK bilateral trade and investment by better servicing clients from both countries.âMr. Ben Kruger, Chief Executive of SBG, stated: âICBC is a long-standing strategic partner of SBG, and we are excited by the unique opportunity this transaction offers to our people and our clients. The new business unlocks the potential and capacity of our Global Markets business as part of China's leading banking group, while also recognizing the unique African focus and expertise of our investment banking and transactional platforms. The joint venture will continue to support all trading requirements of SBGâs existing customers with full and uninterrupted access to all distribution channels as they partner with SBG to finance growth and development on the African continent.âMr. David Munro, Chief Executive, SBG CIB, said: âThis transaction further strengthens SBGâs powerful relationship with ICBC. China and Africa have an increasingly important shared role in the future of the global economy, and this partnership brings together ICBCâs financial and global reach, with SBGâs deep expertise in Africa, to the benefit of our mutual and prospective clients. SBGâs Africa strategy will create increased flows for the Global Markets business as African corporates increasingly demand access to international markets and international corporates demand access to African opportunities.âAbout Industrial and Commercial Bank of China LimitedWith a solid client base, diversified business structure, strong innovative capabilities, and market competitiveness, ICBC provides comprehensive financial products and services to more than 5 million corporate clients and over 460 million individual customers through its approximately 17,000 outlets in mainland China, over 330 overseas branches and subsidiaries, more than 1,800 global correspondent banks, a global RMB clearing network covering 76 countries and regions, as well as such other distribution channels as internet banking, telephone banking and self-service banking. ICBC holds a leading position in Chinaâs domestic commercial banking market with its core commercial banking business model, cross-market coverage, and globalized business network structure.  On November 28, 2014, ICBC was granted "Bank of the Year â global and regional winners" by the British magazine The Banker, becoming the first commercial bank in Asia crowned "Bank of the Year" in the global category. For more information on ICBC, please visit www.icbc.com.cn.About Standard Bank Group Limited and Standard Bank London Holdings LimitedStandard Bank Group Limited (âSBGâ) is the largest African bank by assets. ICBC holds a 20 per cent interest in SBG. SBG is listed on the Johannesburg Stock Exchange in South Africa with a secondary listing on the Namibian Stock Exchange. Standard Bank London Holdings Limited is an intermediate holding company established in the United Kingdom and a wholly owned subsidiary of SBG.                    ï¼2015-02-02ï¼            ãCloseã</t>
         </is>
       </c>
     </row>
